--- a/CP_p2/Vmstat-%CPU.xlsx
+++ b/CP_p2/Vmstat-%CPU.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,13 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -341,13 +409,920 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="M2:M181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="M2" t="n">
+        <v>548176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="M3" t="n">
+        <v>547680</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="M4" t="n">
+        <v>547428</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="M5" t="n">
+        <v>547428</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="M6" t="n">
+        <v>547428</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="M7" t="n">
+        <v>547428</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="M8" t="n">
+        <v>547428</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="M9" t="n">
+        <v>547428</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="M10" t="n">
+        <v>525472</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="M11" t="n">
+        <v>525496</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="M12" t="n">
+        <v>525496</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="M13" t="n">
+        <v>525496</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="n">
+        <v>525496</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="M15" t="n">
+        <v>525496</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="n">
+        <v>525244</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="M17" t="n">
+        <v>525496</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="M18" t="n">
+        <v>525496</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="M19" t="n">
+        <v>525244</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="M20" t="n">
+        <v>525244</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="M21" t="n">
+        <v>525180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="M22" t="n">
+        <v>525180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="M23" t="n">
+        <v>525180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="M24" t="n">
+        <v>525180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="M25" t="n">
+        <v>525180</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="M26" t="n">
+        <v>524964</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="M27" t="n">
+        <v>524728</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="M28" t="n">
+        <v>524980</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="M29" t="n">
+        <v>524980</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="M30" t="n">
+        <v>524980</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="M31" t="n">
+        <v>524980</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="M32" t="n">
+        <v>524728</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="M33" t="n">
+        <v>524720</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" t="n">
+        <v>524768</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" t="n">
+        <v>524768</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" t="n">
+        <v>419044</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="M37" t="n">
+        <v>419968</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="M38" t="n">
+        <v>432284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="M39" t="n">
+        <v>431900</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="M40" t="n">
+        <v>436476</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="M41" t="n">
+        <v>433988</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="M42" t="n">
+        <v>310400</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="M43" t="n">
+        <v>375396</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="M44" t="n">
+        <v>385484</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="M45" t="n">
+        <v>385452</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="M46" t="n">
+        <v>385452</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="M47" t="n">
+        <v>385452</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="M48" t="n">
+        <v>385704</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="M49" t="n">
+        <v>385452</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="M50" t="n">
+        <v>385452</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="M51" t="n">
+        <v>385452</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="M52" t="n">
+        <v>385452</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="M53" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="M54" t="n">
+        <v>385420</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="M55" t="n">
+        <v>385484</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="M56" t="n">
+        <v>385476</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="M57" t="n">
+        <v>385476</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="M58" t="n">
+        <v>385460</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="M59" t="n">
+        <v>385436</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="M60" t="n">
+        <v>385436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="M61" t="n">
+        <v>385436</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="M62" t="n">
+        <v>385428</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="M63" t="n">
+        <v>385428</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="M64" t="n">
+        <v>385428</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="M65" t="n">
+        <v>385428</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="M66" t="n">
+        <v>385452</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="M67" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="M68" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="M69" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="M70" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="M71" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="M72" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="M73" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="M74" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="M75" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="M76" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="M77" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="M78" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="M79" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="M80" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="M81" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="M82" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="M83" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="M84" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="M85" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="M86" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="M87" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="M88" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="M89" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="M90" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="M91" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="M92" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="M93" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="M94" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="M95" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="M96" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="M97" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="M98" t="n">
+        <v>385444</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="M99" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="M100" t="n">
+        <v>385192</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="M101" t="n">
+        <v>384688</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="M102" t="n">
+        <v>383640</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="M103" t="n">
+        <v>383356</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="M104" t="n">
+        <v>383608</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="M105" t="n">
+        <v>383608</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="M106" t="n">
+        <v>383860</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="M107" t="n">
+        <v>383860</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="M108" t="n">
+        <v>383608</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="M109" t="n">
+        <v>383608</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="M110" t="n">
+        <v>383608</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="M111" t="n">
+        <v>383608</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="M112" t="n">
+        <v>383860</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="M113" t="n">
+        <v>383860</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="M114" t="n">
+        <v>383860</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="M115" t="n">
+        <v>383600</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="M116" t="n">
+        <v>383600</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="M117" t="n">
+        <v>383600</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="M118" t="n">
+        <v>383852</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="M119" t="n">
+        <v>383852</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="M120" t="n">
+        <v>383852</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="M121" t="n">
+        <v>313772</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="M122" t="n">
+        <v>334444</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="M123" t="n">
+        <v>334256</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="M124" t="n">
+        <v>334256</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="M125" t="n">
+        <v>334256</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="M126" t="n">
+        <v>334256</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="M127" t="n">
+        <v>334232</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="M128" t="n">
+        <v>334232</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="M129" t="n">
+        <v>88956</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="M130" t="n">
+        <v>78704</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="M131" t="n">
+        <v>185272</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="M132" t="n">
+        <v>202516</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="M133" t="n">
+        <v>181088</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="M134" t="n">
+        <v>174392</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="M135" t="n">
+        <v>560676</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="M136" t="n">
+        <v>560676</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="M137" t="n">
+        <v>560676</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="M138" t="n">
+        <v>560928</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="M139" t="n">
+        <v>560928</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="M140" t="n">
+        <v>560928</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="M141" t="n">
+        <v>560928</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="M142" t="n">
+        <v>560928</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="M143" t="n">
+        <v>560928</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="M144" t="n">
+        <v>560928</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="M145" t="n">
+        <v>560928</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="M146" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="M147" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="M148" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="M149" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="M150" t="n">
+        <v>561408</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="M151" t="n">
+        <v>561408</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="M152" t="n">
+        <v>561408</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="M153" t="n">
+        <v>561408</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="M154" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="M155" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="M156" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="M157" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="M158" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="M159" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="M160" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="M161" t="n">
+        <v>561156</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="M162" t="n">
+        <v>560904</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="M163" t="n">
+        <v>560904</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="M164" t="n">
+        <v>560904</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="M165" t="n">
+        <v>560904</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="M166" t="n">
+        <v>560904</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="M167" t="n">
+        <v>560904</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="M168" t="n">
+        <v>560904</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="M169" t="n">
+        <v>560652</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="M170" t="n">
+        <v>560652</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="M171" t="n">
+        <v>560652</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="M172" t="n">
+        <v>560728</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="M173" t="n">
+        <v>560476</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="M174" t="n">
+        <v>560728</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="M175" t="n">
+        <v>560728</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="M176" t="n">
+        <v>560728</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="M177" t="n">
+        <v>560476</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="M178" t="n">
+        <v>559972</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="M179" t="n">
+        <v>559972</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="M180" t="n">
+        <v>560224</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="M181" t="n">
+        <v>560224</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CP_p2/Vmstat-%CPU.xlsx
+++ b/CP_p2/Vmstat-%CPU.xlsx
@@ -1,33 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Documents\GitHub\ACSI\CP_p2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +64,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,916 +368,2003 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="M2:M181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2">
-      <c r="M2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3.4</v>
+      </c>
+      <c r="B2">
+        <v>3.4</v>
+      </c>
+      <c r="C2">
         <v>548176</v>
       </c>
     </row>
-    <row r="3">
-      <c r="M3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>547680</v>
       </c>
     </row>
-    <row r="4">
-      <c r="M4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>547428</v>
       </c>
     </row>
-    <row r="5">
-      <c r="M5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>547428</v>
       </c>
     </row>
-    <row r="6">
-      <c r="M6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>547428</v>
       </c>
     </row>
-    <row r="7">
-      <c r="M7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>547428</v>
       </c>
     </row>
-    <row r="8">
-      <c r="M8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>547428</v>
       </c>
     </row>
-    <row r="9">
-      <c r="M9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>547428</v>
       </c>
     </row>
-    <row r="10">
-      <c r="M10" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
         <v>525472</v>
       </c>
     </row>
-    <row r="11">
-      <c r="M11" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>525496</v>
       </c>
     </row>
-    <row r="12">
-      <c r="M12" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>525496</v>
       </c>
     </row>
-    <row r="13">
-      <c r="M13" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>525496</v>
       </c>
     </row>
-    <row r="14">
-      <c r="M14" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>525496</v>
       </c>
     </row>
-    <row r="15">
-      <c r="M15" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>525496</v>
       </c>
     </row>
-    <row r="16">
-      <c r="M16" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>525244</v>
       </c>
     </row>
-    <row r="17">
-      <c r="M17" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>525496</v>
       </c>
     </row>
-    <row r="18">
-      <c r="M18" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>525496</v>
       </c>
     </row>
-    <row r="19">
-      <c r="M19" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.2</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19">
         <v>525244</v>
       </c>
     </row>
-    <row r="20">
-      <c r="M20" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
         <v>525244</v>
       </c>
     </row>
-    <row r="21">
-      <c r="M21" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>525180</v>
       </c>
     </row>
-    <row r="22">
-      <c r="M22" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>525180</v>
       </c>
     </row>
-    <row r="23">
-      <c r="M23" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>525180</v>
       </c>
     </row>
-    <row r="24">
-      <c r="M24" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>525180</v>
       </c>
     </row>
-    <row r="25">
-      <c r="M25" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>525180</v>
       </c>
     </row>
-    <row r="26">
-      <c r="M26" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>524964</v>
       </c>
     </row>
-    <row r="27">
-      <c r="M27" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>524728</v>
       </c>
     </row>
-    <row r="28">
-      <c r="M28" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>524980</v>
       </c>
     </row>
-    <row r="29">
-      <c r="M29" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>524980</v>
       </c>
     </row>
-    <row r="30">
-      <c r="M30" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>524980</v>
       </c>
     </row>
-    <row r="31">
-      <c r="M31" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>524980</v>
       </c>
     </row>
-    <row r="32">
-      <c r="M32" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0.3</v>
+      </c>
+      <c r="C32">
         <v>524728</v>
       </c>
     </row>
-    <row r="33">
-      <c r="M33" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>0.6</v>
+      </c>
+      <c r="C33">
         <v>524720</v>
       </c>
     </row>
-    <row r="34">
-      <c r="M34" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>524768</v>
       </c>
     </row>
-    <row r="35">
-      <c r="M35" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>524768</v>
       </c>
     </row>
-    <row r="36">
-      <c r="M36" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B36">
+        <v>2.1</v>
+      </c>
+      <c r="C36">
         <v>419044</v>
       </c>
     </row>
-    <row r="37">
-      <c r="M37" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.5</v>
+      </c>
+      <c r="B37">
+        <v>2.4</v>
+      </c>
+      <c r="C37">
         <v>419968</v>
       </c>
     </row>
-    <row r="38">
-      <c r="M38" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4.3</v>
+      </c>
+      <c r="B38">
+        <v>12.2</v>
+      </c>
+      <c r="C38">
         <v>432284</v>
       </c>
     </row>
-    <row r="39">
-      <c r="M39" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.1</v>
+      </c>
+      <c r="B39">
+        <v>0.2</v>
+      </c>
+      <c r="C39">
         <v>431900</v>
       </c>
     </row>
-    <row r="40">
-      <c r="M40" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.3</v>
+      </c>
+      <c r="B40">
+        <v>0.4</v>
+      </c>
+      <c r="C40">
         <v>436476</v>
       </c>
     </row>
-    <row r="41">
-      <c r="M41" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1.5</v>
+      </c>
+      <c r="B41">
+        <v>3.9</v>
+      </c>
+      <c r="C41">
         <v>433988</v>
       </c>
     </row>
-    <row r="42">
-      <c r="M42" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1.8</v>
+      </c>
+      <c r="B42">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C42">
         <v>310400</v>
       </c>
     </row>
-    <row r="43">
-      <c r="M43" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>375396</v>
       </c>
     </row>
-    <row r="44">
-      <c r="M44" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>385484</v>
       </c>
     </row>
-    <row r="45">
-      <c r="M45" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.1</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
         <v>385452</v>
       </c>
     </row>
-    <row r="46">
-      <c r="M46" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>385452</v>
       </c>
     </row>
-    <row r="47">
-      <c r="M47" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <v>385452</v>
       </c>
     </row>
-    <row r="48">
-      <c r="M48" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
         <v>385704</v>
       </c>
     </row>
-    <row r="49">
-      <c r="M49" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>385452</v>
       </c>
     </row>
-    <row r="50">
-      <c r="M50" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>385452</v>
       </c>
     </row>
-    <row r="51">
-      <c r="M51" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.1</v>
+      </c>
+      <c r="B51">
+        <v>0.3</v>
+      </c>
+      <c r="C51">
         <v>385452</v>
       </c>
     </row>
-    <row r="52">
-      <c r="M52" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.1</v>
+      </c>
+      <c r="B52">
+        <v>0.3</v>
+      </c>
+      <c r="C52">
         <v>385452</v>
       </c>
     </row>
-    <row r="53">
-      <c r="M53" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0.1</v>
+      </c>
+      <c r="C53">
         <v>385444</v>
       </c>
     </row>
-    <row r="54">
-      <c r="M54" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>385420</v>
       </c>
     </row>
-    <row r="55">
-      <c r="M55" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.1</v>
+      </c>
+      <c r="B55">
+        <v>0.3</v>
+      </c>
+      <c r="C55">
         <v>385484</v>
       </c>
     </row>
-    <row r="56">
-      <c r="M56" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.3</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="C56">
         <v>385476</v>
       </c>
     </row>
-    <row r="57">
-      <c r="M57" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>385476</v>
       </c>
     </row>
-    <row r="58">
-      <c r="M58" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.1</v>
+      </c>
+      <c r="B58">
+        <v>0.2</v>
+      </c>
+      <c r="C58">
         <v>385460</v>
       </c>
     </row>
-    <row r="59">
-      <c r="M59" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.1</v>
+      </c>
+      <c r="B59">
+        <v>0.1</v>
+      </c>
+      <c r="C59">
         <v>385436</v>
       </c>
     </row>
-    <row r="60">
-      <c r="M60" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0.1</v>
+      </c>
+      <c r="C60">
         <v>385436</v>
       </c>
     </row>
-    <row r="61">
-      <c r="M61" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.1</v>
+      </c>
+      <c r="B61">
+        <v>0.2</v>
+      </c>
+      <c r="C61">
         <v>385436</v>
       </c>
     </row>
-    <row r="62">
-      <c r="M62" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0.1</v>
+      </c>
+      <c r="C62">
         <v>385428</v>
       </c>
     </row>
-    <row r="63">
-      <c r="M63" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
         <v>385428</v>
       </c>
     </row>
-    <row r="64">
-      <c r="M64" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
         <v>385428</v>
       </c>
     </row>
-    <row r="65">
-      <c r="M65" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
         <v>385428</v>
       </c>
     </row>
-    <row r="66">
-      <c r="M66" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.1</v>
+      </c>
+      <c r="B66">
+        <v>0.2</v>
+      </c>
+      <c r="C66">
         <v>385452</v>
       </c>
     </row>
-    <row r="67">
-      <c r="M67" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
         <v>385192</v>
       </c>
     </row>
-    <row r="68">
-      <c r="M68" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>385192</v>
       </c>
     </row>
-    <row r="69">
-      <c r="M69" t="n">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
         <v>385192</v>
       </c>
     </row>
-    <row r="70">
-      <c r="M70" t="n">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
         <v>385192</v>
       </c>
     </row>
-    <row r="71">
-      <c r="M71" t="n">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>385192</v>
       </c>
     </row>
-    <row r="72">
-      <c r="M72" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>385192</v>
       </c>
     </row>
-    <row r="73">
-      <c r="M73" t="n">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>385192</v>
       </c>
     </row>
-    <row r="74">
-      <c r="M74" t="n">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
         <v>385192</v>
       </c>
     </row>
-    <row r="75">
-      <c r="M75" t="n">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>385444</v>
       </c>
     </row>
-    <row r="76">
-      <c r="M76" t="n">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
         <v>385444</v>
       </c>
     </row>
-    <row r="77">
-      <c r="M77" t="n">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
         <v>385192</v>
       </c>
     </row>
-    <row r="78">
-      <c r="M78" t="n">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>385192</v>
       </c>
     </row>
-    <row r="79">
-      <c r="M79" t="n">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
         <v>385192</v>
       </c>
     </row>
-    <row r="80">
-      <c r="M80" t="n">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
         <v>385192</v>
       </c>
     </row>
-    <row r="81">
-      <c r="M81" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
         <v>385192</v>
       </c>
     </row>
-    <row r="82">
-      <c r="M82" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
         <v>385192</v>
       </c>
     </row>
-    <row r="83">
-      <c r="M83" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
         <v>385192</v>
       </c>
     </row>
-    <row r="84">
-      <c r="M84" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
         <v>385192</v>
       </c>
     </row>
-    <row r="85">
-      <c r="M85" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
         <v>385192</v>
       </c>
     </row>
-    <row r="86">
-      <c r="M86" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
         <v>385444</v>
       </c>
     </row>
-    <row r="87">
-      <c r="M87" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
         <v>385444</v>
       </c>
     </row>
-    <row r="88">
-      <c r="M88" t="n">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
         <v>385444</v>
       </c>
     </row>
-    <row r="89">
-      <c r="M89" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0.1</v>
+      </c>
+      <c r="C89">
         <v>385444</v>
       </c>
     </row>
-    <row r="90">
-      <c r="M90" t="n">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
         <v>385192</v>
       </c>
     </row>
-    <row r="91">
-      <c r="M91" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.1</v>
+      </c>
+      <c r="B91">
+        <v>0.2</v>
+      </c>
+      <c r="C91">
         <v>385192</v>
       </c>
     </row>
-    <row r="92">
-      <c r="M92" t="n">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0.1</v>
+      </c>
+      <c r="C92">
         <v>385192</v>
       </c>
     </row>
-    <row r="93">
-      <c r="M93" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.1</v>
+      </c>
+      <c r="B93">
+        <v>0.1</v>
+      </c>
+      <c r="C93">
         <v>385444</v>
       </c>
     </row>
-    <row r="94">
-      <c r="M94" t="n">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
         <v>385444</v>
       </c>
     </row>
-    <row r="95">
-      <c r="M95" t="n">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
         <v>385444</v>
       </c>
     </row>
-    <row r="96">
-      <c r="M96" t="n">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
         <v>385444</v>
       </c>
     </row>
-    <row r="97">
-      <c r="M97" t="n">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
         <v>385444</v>
       </c>
     </row>
-    <row r="98">
-      <c r="M98" t="n">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
         <v>385444</v>
       </c>
     </row>
-    <row r="99">
-      <c r="M99" t="n">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
         <v>385192</v>
       </c>
     </row>
-    <row r="100">
-      <c r="M100" t="n">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
         <v>385192</v>
       </c>
     </row>
-    <row r="101">
-      <c r="M101" t="n">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0.2</v>
+      </c>
+      <c r="C101">
         <v>384688</v>
       </c>
     </row>
-    <row r="102">
-      <c r="M102" t="n">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>0.1</v>
+      </c>
+      <c r="C102">
         <v>383640</v>
       </c>
     </row>
-    <row r="103">
-      <c r="M103" t="n">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
         <v>383356</v>
       </c>
     </row>
-    <row r="104">
-      <c r="M104" t="n">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
         <v>383608</v>
       </c>
     </row>
-    <row r="105">
-      <c r="M105" t="n">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
         <v>383608</v>
       </c>
     </row>
-    <row r="106">
-      <c r="M106" t="n">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
         <v>383860</v>
       </c>
     </row>
-    <row r="107">
-      <c r="M107" t="n">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
         <v>383860</v>
       </c>
     </row>
-    <row r="108">
-      <c r="M108" t="n">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
         <v>383608</v>
       </c>
     </row>
-    <row r="109">
-      <c r="M109" t="n">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
         <v>383608</v>
       </c>
     </row>
-    <row r="110">
-      <c r="M110" t="n">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
         <v>383608</v>
       </c>
     </row>
-    <row r="111">
-      <c r="M111" t="n">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.1</v>
+      </c>
+      <c r="B111">
+        <v>0.2</v>
+      </c>
+      <c r="C111">
         <v>383608</v>
       </c>
     </row>
-    <row r="112">
-      <c r="M112" t="n">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
         <v>383860</v>
       </c>
     </row>
-    <row r="113">
-      <c r="M113" t="n">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
         <v>383860</v>
       </c>
     </row>
-    <row r="114">
-      <c r="M114" t="n">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
         <v>383860</v>
       </c>
     </row>
-    <row r="115">
-      <c r="M115" t="n">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>0.1</v>
+      </c>
+      <c r="B115">
+        <v>0.2</v>
+      </c>
+      <c r="C115">
         <v>383600</v>
       </c>
     </row>
-    <row r="116">
-      <c r="M116" t="n">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
         <v>383600</v>
       </c>
     </row>
-    <row r="117">
-      <c r="M117" t="n">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
         <v>383600</v>
       </c>
     </row>
-    <row r="118">
-      <c r="M118" t="n">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
         <v>383852</v>
       </c>
     </row>
-    <row r="119">
-      <c r="M119" t="n">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
         <v>383852</v>
       </c>
     </row>
-    <row r="120">
-      <c r="M120" t="n">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
         <v>383852</v>
       </c>
     </row>
-    <row r="121">
-      <c r="M121" t="n">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.3</v>
+      </c>
+      <c r="B121">
+        <v>0.1</v>
+      </c>
+      <c r="C121">
         <v>313772</v>
       </c>
     </row>
-    <row r="122">
-      <c r="M122" t="n">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.1</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
         <v>334444</v>
       </c>
     </row>
-    <row r="123">
-      <c r="M123" t="n">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0.1</v>
+      </c>
+      <c r="B123">
+        <v>0.1</v>
+      </c>
+      <c r="C123">
         <v>334256</v>
       </c>
     </row>
-    <row r="124">
-      <c r="M124" t="n">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
         <v>334256</v>
       </c>
     </row>
-    <row r="125">
-      <c r="M125" t="n">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
         <v>334256</v>
       </c>
     </row>
-    <row r="126">
-      <c r="M126" t="n">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
         <v>334256</v>
       </c>
     </row>
-    <row r="127">
-      <c r="M127" t="n">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
         <v>334232</v>
       </c>
     </row>
-    <row r="128">
-      <c r="M128" t="n">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
         <v>334232</v>
       </c>
     </row>
-    <row r="129">
-      <c r="M129" t="n">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1.7</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
         <v>88956</v>
       </c>
     </row>
-    <row r="130">
-      <c r="M130" t="n">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>3.3</v>
+      </c>
+      <c r="B130">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C130">
         <v>78704</v>
       </c>
     </row>
-    <row r="131">
-      <c r="M131" t="n">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>4.5</v>
+      </c>
+      <c r="B131">
+        <v>13.7</v>
+      </c>
+      <c r="C131">
         <v>185272</v>
       </c>
     </row>
-    <row r="132">
-      <c r="M132" t="n">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>4.3</v>
+      </c>
+      <c r="B132">
+        <v>5.9</v>
+      </c>
+      <c r="C132">
         <v>202516</v>
       </c>
     </row>
-    <row r="133">
-      <c r="M133" t="n">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C133">
         <v>181088</v>
       </c>
     </row>
-    <row r="134">
-      <c r="M134" t="n">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>5.5</v>
+      </c>
+      <c r="B134">
+        <v>6.3</v>
+      </c>
+      <c r="C134">
         <v>174392</v>
       </c>
     </row>
-    <row r="135">
-      <c r="M135" t="n">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.2</v>
+      </c>
+      <c r="B135">
+        <v>0.8</v>
+      </c>
+      <c r="C135">
         <v>560676</v>
       </c>
     </row>
-    <row r="136">
-      <c r="M136" t="n">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
         <v>560676</v>
       </c>
     </row>
-    <row r="137">
-      <c r="M137" t="n">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
         <v>560676</v>
       </c>
     </row>
-    <row r="138">
-      <c r="M138" t="n">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
         <v>560928</v>
       </c>
     </row>
-    <row r="139">
-      <c r="M139" t="n">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
         <v>560928</v>
       </c>
     </row>
-    <row r="140">
-      <c r="M140" t="n">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
         <v>560928</v>
       </c>
     </row>
-    <row r="141">
-      <c r="M141" t="n">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
         <v>560928</v>
       </c>
     </row>
-    <row r="142">
-      <c r="M142" t="n">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
         <v>560928</v>
       </c>
     </row>
-    <row r="143">
-      <c r="M143" t="n">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
         <v>560928</v>
       </c>
     </row>
-    <row r="144">
-      <c r="M144" t="n">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
         <v>560928</v>
       </c>
     </row>
-    <row r="145">
-      <c r="M145" t="n">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
         <v>560928</v>
       </c>
     </row>
-    <row r="146">
-      <c r="M146" t="n">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
         <v>561156</v>
       </c>
     </row>
-    <row r="147">
-      <c r="M147" t="n">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
         <v>561156</v>
       </c>
     </row>
-    <row r="148">
-      <c r="M148" t="n">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
         <v>561156</v>
       </c>
     </row>
-    <row r="149">
-      <c r="M149" t="n">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
         <v>561156</v>
       </c>
     </row>
-    <row r="150">
-      <c r="M150" t="n">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
         <v>561408</v>
       </c>
     </row>
-    <row r="151">
-      <c r="M151" t="n">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
         <v>561408</v>
       </c>
     </row>
-    <row r="152">
-      <c r="M152" t="n">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
         <v>561408</v>
       </c>
     </row>
-    <row r="153">
-      <c r="M153" t="n">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>0.1</v>
+      </c>
+      <c r="B153">
+        <v>0.1</v>
+      </c>
+      <c r="C153">
         <v>561408</v>
       </c>
     </row>
-    <row r="154">
-      <c r="M154" t="n">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0.1</v>
+      </c>
+      <c r="B154">
+        <v>0.1</v>
+      </c>
+      <c r="C154">
         <v>561156</v>
       </c>
     </row>
-    <row r="155">
-      <c r="M155" t="n">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0.1</v>
+      </c>
+      <c r="B155">
+        <v>0.1</v>
+      </c>
+      <c r="C155">
         <v>561156</v>
       </c>
     </row>
-    <row r="156">
-      <c r="M156" t="n">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
         <v>561156</v>
       </c>
     </row>
-    <row r="157">
-      <c r="M157" t="n">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0.1</v>
+      </c>
+      <c r="C157">
         <v>561156</v>
       </c>
     </row>
-    <row r="158">
-      <c r="M158" t="n">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
         <v>561156</v>
       </c>
     </row>
-    <row r="159">
-      <c r="M159" t="n">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
         <v>561156</v>
       </c>
     </row>
-    <row r="160">
-      <c r="M160" t="n">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
         <v>561156</v>
       </c>
     </row>
-    <row r="161">
-      <c r="M161" t="n">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
         <v>561156</v>
       </c>
     </row>
-    <row r="162">
-      <c r="M162" t="n">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
         <v>560904</v>
       </c>
     </row>
-    <row r="163">
-      <c r="M163" t="n">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
         <v>560904</v>
       </c>
     </row>
-    <row r="164">
-      <c r="M164" t="n">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
         <v>560904</v>
       </c>
     </row>
-    <row r="165">
-      <c r="M165" t="n">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
         <v>560904</v>
       </c>
     </row>
-    <row r="166">
-      <c r="M166" t="n">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
         <v>560904</v>
       </c>
     </row>
-    <row r="167">
-      <c r="M167" t="n">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
         <v>560904</v>
       </c>
     </row>
-    <row r="168">
-      <c r="M168" t="n">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
         <v>560904</v>
       </c>
     </row>
-    <row r="169">
-      <c r="M169" t="n">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
         <v>560652</v>
       </c>
     </row>
-    <row r="170">
-      <c r="M170" t="n">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
         <v>560652</v>
       </c>
     </row>
-    <row r="171">
-      <c r="M171" t="n">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
         <v>560652</v>
       </c>
     </row>
-    <row r="172">
-      <c r="M172" t="n">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
         <v>560728</v>
       </c>
     </row>
-    <row r="173">
-      <c r="M173" t="n">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
         <v>560476</v>
       </c>
     </row>
-    <row r="174">
-      <c r="M174" t="n">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
         <v>560728</v>
       </c>
     </row>
-    <row r="175">
-      <c r="M175" t="n">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
         <v>560728</v>
       </c>
     </row>
-    <row r="176">
-      <c r="M176" t="n">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
         <v>560728</v>
       </c>
     </row>
-    <row r="177">
-      <c r="M177" t="n">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
         <v>560476</v>
       </c>
     </row>
-    <row r="178">
-      <c r="M178" t="n">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>0.1</v>
+      </c>
+      <c r="C178">
         <v>559972</v>
       </c>
     </row>
-    <row r="179">
-      <c r="M179" t="n">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
         <v>559972</v>
       </c>
     </row>
-    <row r="180">
-      <c r="M180" t="n">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
         <v>560224</v>
       </c>
     </row>
-    <row r="181">
-      <c r="M181" t="n">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
         <v>560224</v>
       </c>
     </row>
